--- a/doc/worktile版本计划表v1.1.xlsx
+++ b/doc/worktile版本计划表v1.1.xlsx
@@ -386,8 +386,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -456,8 +456,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,6 +479,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -486,23 +495,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,6 +518,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -523,8 +533,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +558,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,38 +588,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,31 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +680,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,19 +770,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,91 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,15 +1148,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1175,8 +1166,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,6 +1198,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,28 +1237,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,10 +1253,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,134 +1265,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2016,11 +2016,11 @@
   <dimension ref="A1:FP112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="AE29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="AE20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46:W46"/>
+      <selection pane="bottomRight" activeCell="X32" sqref="X32:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2876,7 +2876,7 @@
       <c r="FO3" s="61"/>
       <c r="FP3" s="61"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:166">
+    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:166">
       <c r="A4" s="13"/>
       <c r="B4" s="5"/>
       <c r="C4" s="14" t="s">
@@ -3056,7 +3056,7 @@
       <c r="FI4" s="77"/>
       <c r="FJ4" s="77"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:166">
+    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:166">
       <c r="A5" s="13"/>
       <c r="B5" s="5"/>
       <c r="C5" s="14" t="s">
@@ -3236,7 +3236,7 @@
       <c r="FI5" s="77"/>
       <c r="FJ5" s="77"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:166">
+    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:166">
       <c r="A6" s="13"/>
       <c r="B6" s="5"/>
       <c r="C6" s="14" t="s">
@@ -3416,7 +3416,7 @@
       <c r="FI6" s="77"/>
       <c r="FJ6" s="77"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:166">
+    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:166">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="14" t="s">
@@ -3596,7 +3596,7 @@
       <c r="FI7" s="77"/>
       <c r="FJ7" s="77"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:166">
+    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="1:166">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="14" t="s">
@@ -3776,7 +3776,7 @@
       <c r="FI8" s="77"/>
       <c r="FJ8" s="77"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:166">
+    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:166">
       <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="14" t="s">
@@ -3956,7 +3956,7 @@
       <c r="FI9" s="77"/>
       <c r="FJ9" s="77"/>
     </row>
-    <row r="10" ht="16.5" hidden="1" spans="1:166">
+    <row r="10" ht="16.5" spans="1:166">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="14" t="s">
@@ -4101,7 +4101,7 @@
       <c r="FI10" s="61"/>
       <c r="FJ10" s="61"/>
     </row>
-    <row r="11" ht="16.5" hidden="1" spans="1:166">
+    <row r="11" ht="16.5" spans="1:166">
       <c r="A11" s="13"/>
       <c r="B11" s="5"/>
       <c r="C11" s="14" t="s">
@@ -4246,7 +4246,7 @@
       <c r="FI11" s="61"/>
       <c r="FJ11" s="61"/>
     </row>
-    <row r="12" ht="16.5" hidden="1" spans="1:166">
+    <row r="12" ht="16.5" spans="1:166">
       <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="14" t="s">
@@ -4391,7 +4391,7 @@
       <c r="FI12" s="61"/>
       <c r="FJ12" s="61"/>
     </row>
-    <row r="13" ht="16.5" hidden="1" spans="1:166">
+    <row r="13" ht="16.5" spans="1:166">
       <c r="A13" s="13"/>
       <c r="B13" s="5"/>
       <c r="C13" s="14" t="s">
@@ -4536,7 +4536,7 @@
       <c r="FI13" s="61"/>
       <c r="FJ13" s="61"/>
     </row>
-    <row r="14" ht="16.5" hidden="1" spans="1:166">
+    <row r="14" ht="16.5" spans="1:166">
       <c r="A14" s="13"/>
       <c r="B14" s="5"/>
       <c r="C14" s="14" t="s">
@@ -4681,7 +4681,7 @@
       <c r="FI14" s="61"/>
       <c r="FJ14" s="61"/>
     </row>
-    <row r="15" ht="16.5" hidden="1" spans="2:166">
+    <row r="15" ht="16.5" spans="2:166">
       <c r="B15" s="5"/>
       <c r="C15" s="14" t="s">
         <v>49</v>
@@ -4825,7 +4825,7 @@
       <c r="FI15" s="61"/>
       <c r="FJ15" s="61"/>
     </row>
-    <row r="16" ht="16.5" hidden="1" spans="2:166">
+    <row r="16" ht="16.5" spans="2:166">
       <c r="B16" s="5"/>
       <c r="C16" s="14" t="s">
         <v>49</v>
@@ -4968,7 +4968,7 @@
       <c r="FI16" s="61"/>
       <c r="FJ16" s="61"/>
     </row>
-    <row r="17" ht="16.5" hidden="1" spans="2:166">
+    <row r="17" ht="16.5" spans="2:166">
       <c r="B17" s="5"/>
       <c r="C17" s="14" t="s">
         <v>49</v>
@@ -5112,7 +5112,7 @@
       <c r="FI17" s="61"/>
       <c r="FJ17" s="61"/>
     </row>
-    <row r="18" ht="16.5" hidden="1" spans="2:166">
+    <row r="18" ht="16.5" spans="2:166">
       <c r="B18" s="5"/>
       <c r="C18" s="14" t="s">
         <v>49</v>
@@ -5256,7 +5256,7 @@
       <c r="FI18" s="61"/>
       <c r="FJ18" s="61"/>
     </row>
-    <row r="19" ht="16.5" hidden="1" spans="2:166">
+    <row r="19" ht="16.5" spans="2:166">
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
         <v>49</v>
@@ -5400,7 +5400,7 @@
       <c r="FI19" s="61"/>
       <c r="FJ19" s="61"/>
     </row>
-    <row r="20" ht="16.5" hidden="1" spans="2:166">
+    <row r="20" ht="16.5" spans="2:166">
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
         <v>49</v>
@@ -5544,7 +5544,7 @@
       <c r="FI20" s="61"/>
       <c r="FJ20" s="61"/>
     </row>
-    <row r="21" ht="16.5" hidden="1" spans="2:166">
+    <row r="21" ht="16.5" spans="2:166">
       <c r="B21" s="5"/>
       <c r="C21" s="14" t="s">
         <v>49</v>
@@ -5688,7 +5688,7 @@
       <c r="FI21" s="61"/>
       <c r="FJ21" s="61"/>
     </row>
-    <row r="22" ht="16.5" hidden="1" spans="2:166">
+    <row r="22" ht="16.5" spans="2:166">
       <c r="B22" s="5"/>
       <c r="C22" s="14" t="s">
         <v>49</v>
@@ -5832,7 +5832,7 @@
       <c r="FI22" s="61"/>
       <c r="FJ22" s="61"/>
     </row>
-    <row r="23" ht="16.5" hidden="1" spans="2:166">
+    <row r="23" ht="16.5" spans="2:166">
       <c r="B23" s="5"/>
       <c r="C23" s="14" t="s">
         <v>49</v>
@@ -5976,7 +5976,7 @@
       <c r="FI23" s="61"/>
       <c r="FJ23" s="61"/>
     </row>
-    <row r="24" ht="16.5" hidden="1" spans="2:166">
+    <row r="24" ht="16.5" spans="2:166">
       <c r="B24" s="5"/>
       <c r="C24" s="14" t="s">
         <v>49</v>
@@ -6120,7 +6120,7 @@
       <c r="FI24" s="61"/>
       <c r="FJ24" s="61"/>
     </row>
-    <row r="25" ht="16.5" hidden="1" spans="2:166">
+    <row r="25" ht="16.5" spans="2:166">
       <c r="B25" s="5"/>
       <c r="C25" s="14" t="s">
         <v>49</v>
@@ -6264,7 +6264,7 @@
       <c r="FI25" s="61"/>
       <c r="FJ25" s="61"/>
     </row>
-    <row r="26" ht="16.5" hidden="1" spans="2:166">
+    <row r="26" ht="16.5" spans="2:166">
       <c r="B26" s="5"/>
       <c r="C26" s="14" t="s">
         <v>49</v>
@@ -6408,7 +6408,7 @@
       <c r="FI26" s="61"/>
       <c r="FJ26" s="61"/>
     </row>
-    <row r="27" ht="16.5" hidden="1" spans="2:166">
+    <row r="27" ht="16.5" spans="2:166">
       <c r="B27" s="5"/>
       <c r="C27" s="14" t="s">
         <v>49</v>
@@ -15865,11 +15865,6 @@
     </row>
   </sheetData>
   <autoFilter ref="C3:AD63">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="后台"/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=""/>
